--- a/Data/Wind_Generation.xlsx
+++ b/Data/Wind_Generation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t xml:space="preserve">-BEGIN HEADER-</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve">Value for missing model data cannot be computed or out of model availability range: -999 </t>
   </si>
   <si>
+    <t xml:space="preserve">Integer number of turbines</t>
+  </si>
+  <si>
     <t xml:space="preserve">Parameter(s): </t>
   </si>
   <si>
@@ -113,15 +116,25 @@
   </si>
   <si>
     <t xml:space="preserve">Power of the wind plant (MW)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turbine power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind plant power</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normalized</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -272,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -326,6 +339,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -406,14 +427,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L13" activeCellId="0" sqref="L13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.68359375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.27"/>
   </cols>
@@ -481,72 +504,81 @@
       <c r="A6" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="K6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -579,13 +611,17 @@
         <v>2009.72</v>
       </c>
       <c r="K15" s="13" t="n">
-        <f aca="false">(J15*$L$5)/10^3</f>
-        <v>3.69094582185491</v>
+        <f aca="false">(J15*$L$6)/10^3</f>
+        <v>4.01944</v>
       </c>
       <c r="L15" s="0" t="n">
         <f aca="false">K15/$K$40</f>
         <v>0.515614256539721</v>
       </c>
+      <c r="N15" s="0" t="n">
+        <f aca="false">J15/1000</f>
+        <v>2.00972</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
@@ -617,13 +653,17 @@
         <v>1948.34</v>
       </c>
       <c r="K16" s="13" t="n">
-        <f aca="false">(J16*$L$5)/10^3</f>
-        <v>3.57821854912764</v>
+        <f aca="false">(J16*$L$6)/10^3</f>
+        <v>3.89668</v>
       </c>
       <c r="L16" s="0" t="n">
         <f aca="false">K16/$K$40</f>
         <v>0.499866588672352</v>
       </c>
+      <c r="N16" s="0" t="n">
+        <f aca="false">J16/1000</f>
+        <v>1.94834</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
@@ -655,13 +695,17 @@
         <v>1968.8</v>
       </c>
       <c r="K17" s="13" t="n">
-        <f aca="false">(J17*$L$5)/10^3</f>
-        <v>3.6157943067034</v>
+        <f aca="false">(J17*$L$6)/10^3</f>
+        <v>3.9376</v>
       </c>
       <c r="L17" s="0" t="n">
         <f aca="false">K17/$K$40</f>
         <v>0.505115811294808</v>
       </c>
+      <c r="N17" s="0" t="n">
+        <f aca="false">J17/1000</f>
+        <v>1.9688</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
@@ -693,13 +737,17 @@
         <v>2133.72</v>
       </c>
       <c r="K18" s="13" t="n">
-        <f aca="false">(J18*$L$5)/10^3</f>
-        <v>3.91867768595041</v>
+        <f aca="false">(J18*$L$6)/10^3</f>
+        <v>4.26744</v>
       </c>
       <c r="L18" s="0" t="n">
         <f aca="false">K18/$K$40</f>
         <v>0.547427726978849</v>
       </c>
+      <c r="N18" s="0" t="n">
+        <f aca="false">J18/1000</f>
+        <v>2.13372</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
@@ -731,13 +779,17 @@
         <v>2335.22</v>
       </c>
       <c r="K19" s="13" t="n">
-        <f aca="false">(J19*$L$5)/10^3</f>
-        <v>4.2887419651056</v>
+        <f aca="false">(J19*$L$6)/10^3</f>
+        <v>4.67044</v>
       </c>
       <c r="L19" s="0" t="n">
         <f aca="false">K19/$K$40</f>
         <v>0.599124616442433</v>
       </c>
+      <c r="N19" s="0" t="n">
+        <f aca="false">J19/1000</f>
+        <v>2.33522</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
@@ -769,13 +821,17 @@
         <v>2431.94</v>
       </c>
       <c r="K20" s="13" t="n">
-        <f aca="false">(J20*$L$5)/10^3</f>
-        <v>4.46637281910009</v>
+        <f aca="false">(J20*$L$6)/10^3</f>
+        <v>4.86388</v>
       </c>
       <c r="L20" s="0" t="n">
         <f aca="false">K20/$K$40</f>
         <v>0.623939123384953</v>
       </c>
+      <c r="N20" s="0" t="n">
+        <f aca="false">J20/1000</f>
+        <v>2.43194</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -807,13 +863,17 @@
         <v>2536.72</v>
       </c>
       <c r="K21" s="13" t="n">
-        <f aca="false">(J21*$L$5)/10^3</f>
-        <v>4.65880624426079</v>
+        <f aca="false">(J21*$L$6)/10^3</f>
+        <v>5.07344</v>
       </c>
       <c r="L21" s="0" t="n">
         <f aca="false">K21/$K$40</f>
         <v>0.650821505906017</v>
       </c>
+      <c r="N21" s="0" t="n">
+        <f aca="false">J21/1000</f>
+        <v>2.53672</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
@@ -845,13 +905,17 @@
         <v>2464.18</v>
       </c>
       <c r="K22" s="13" t="n">
-        <f aca="false">(J22*$L$5)/10^3</f>
-        <v>4.52558310376492</v>
+        <f aca="false">(J22*$L$6)/10^3</f>
+        <v>4.92836</v>
       </c>
       <c r="L22" s="0" t="n">
         <f aca="false">K22/$K$40</f>
         <v>0.632210625699127</v>
       </c>
+      <c r="N22" s="0" t="n">
+        <f aca="false">J22/1000</f>
+        <v>2.46418</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
@@ -883,12 +947,16 @@
         <v>2851.24</v>
       </c>
       <c r="K23" s="13" t="n">
-        <f aca="false">(J23*$L$5)/10^3</f>
-        <v>5.23643709825528</v>
+        <f aca="false">(J23*$L$6)/10^3</f>
+        <v>5.70248</v>
       </c>
       <c r="L23" s="0" t="n">
         <f aca="false">K23/$K$40</f>
-        <v>0.731514834313394</v>
+        <v>0.731514834313393</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <f aca="false">J23/1000</f>
+        <v>2.85124</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -921,13 +989,17 @@
         <v>3609.32</v>
       </c>
       <c r="K24" s="13" t="n">
-        <f aca="false">(J24*$L$5)/10^3</f>
-        <v>6.62868686868687</v>
+        <f aca="false">(J24*$L$6)/10^3</f>
+        <v>7.21864</v>
       </c>
       <c r="L24" s="0" t="n">
         <f aca="false">K24/$K$40</f>
         <v>0.926008025204479</v>
       </c>
+      <c r="N24" s="0" t="n">
+        <f aca="false">J24/1000</f>
+        <v>3.60932</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
@@ -959,13 +1031,17 @@
         <v>3609.32</v>
       </c>
       <c r="K25" s="13" t="n">
-        <f aca="false">(J25*$L$5)/10^3</f>
-        <v>6.62868686868687</v>
+        <f aca="false">(J25*$L$6)/10^3</f>
+        <v>7.21864</v>
       </c>
       <c r="L25" s="0" t="n">
         <f aca="false">K25/$K$40</f>
         <v>0.926008025204479</v>
       </c>
+      <c r="N25" s="0" t="n">
+        <f aca="false">J25/1000</f>
+        <v>3.60932</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
@@ -997,13 +1073,17 @@
         <v>3551.64</v>
       </c>
       <c r="K26" s="13" t="n">
-        <f aca="false">(J26*$L$5)/10^3</f>
-        <v>6.52275482093664</v>
+        <f aca="false">(J26*$L$6)/10^3</f>
+        <v>7.10328</v>
       </c>
       <c r="L26" s="0" t="n">
         <f aca="false">K26/$K$40</f>
         <v>0.911209630245374</v>
       </c>
+      <c r="N26" s="0" t="n">
+        <f aca="false">J26/1000</f>
+        <v>3.55164</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
@@ -1035,13 +1115,17 @@
         <v>3584.6</v>
       </c>
       <c r="K27" s="13" t="n">
-        <f aca="false">(J27*$L$5)/10^3</f>
-        <v>6.58328741965106</v>
+        <f aca="false">(J27*$L$6)/10^3</f>
+        <v>7.1692</v>
       </c>
       <c r="L27" s="0" t="n">
         <f aca="false">K27/$K$40</f>
         <v>0.919665855936291</v>
       </c>
+      <c r="N27" s="0" t="n">
+        <f aca="false">J27/1000</f>
+        <v>3.5846</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
@@ -1073,13 +1157,17 @@
         <v>3720.6</v>
       </c>
       <c r="K28" s="13" t="n">
-        <f aca="false">(J28*$L$5)/10^3</f>
-        <v>6.83305785123967</v>
+        <f aca="false">(J28*$L$6)/10^3</f>
+        <v>7.4412</v>
       </c>
       <c r="L28" s="0" t="n">
         <f aca="false">K28/$K$40</f>
         <v>0.954558049321142</v>
       </c>
+      <c r="N28" s="0" t="n">
+        <f aca="false">J28/1000</f>
+        <v>3.7206</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
@@ -1111,13 +1199,17 @@
         <v>3794.3</v>
       </c>
       <c r="K29" s="13" t="n">
-        <f aca="false">(J29*$L$5)/10^3</f>
-        <v>6.9684113865932</v>
+        <f aca="false">(J29*$L$6)/10^3</f>
+        <v>7.5886</v>
       </c>
       <c r="L29" s="0" t="n">
         <f aca="false">K29/$K$40</f>
         <v>0.973466539412785</v>
       </c>
+      <c r="N29" s="0" t="n">
+        <f aca="false">J29/1000</f>
+        <v>3.7943</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
@@ -1149,13 +1241,17 @@
         <v>3854.6</v>
       </c>
       <c r="K30" s="13" t="n">
-        <f aca="false">(J30*$L$5)/10^3</f>
-        <v>7.0791551882461</v>
+        <f aca="false">(J30*$L$6)/10^3</f>
+        <v>7.7092</v>
       </c>
       <c r="L30" s="0" t="n">
         <f aca="false">K30/$K$40</f>
         <v>0.988937122215039</v>
       </c>
+      <c r="N30" s="0" t="n">
+        <f aca="false">J30/1000</f>
+        <v>3.8546</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
@@ -1187,13 +1283,17 @@
         <v>3584.6</v>
       </c>
       <c r="K31" s="13" t="n">
-        <f aca="false">(J31*$L$5)/10^3</f>
-        <v>6.58328741965106</v>
+        <f aca="false">(J31*$L$6)/10^3</f>
+        <v>7.1692</v>
       </c>
       <c r="L31" s="0" t="n">
         <f aca="false">K31/$K$40</f>
         <v>0.919665855936291</v>
       </c>
+      <c r="N31" s="0" t="n">
+        <f aca="false">J31/1000</f>
+        <v>3.5846</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
@@ -1225,12 +1325,16 @@
         <v>3732.92</v>
       </c>
       <c r="K32" s="13" t="n">
-        <f aca="false">(J32*$L$5)/10^3</f>
-        <v>6.85568411386593</v>
+        <f aca="false">(J32*$L$6)/10^3</f>
+        <v>7.46584</v>
       </c>
       <c r="L32" s="0" t="n">
         <f aca="false">K32/$K$40</f>
-        <v>0.957718871545417</v>
+        <v>0.957718871545416</v>
+      </c>
+      <c r="N32" s="0" t="n">
+        <f aca="false">J32/1000</f>
+        <v>3.73292</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,13 +1367,17 @@
         <v>3823.56</v>
       </c>
       <c r="K33" s="13" t="n">
-        <f aca="false">(J33*$L$5)/10^3</f>
-        <v>7.02214876033058</v>
+        <f aca="false">(J33*$L$6)/10^3</f>
+        <v>7.64712</v>
       </c>
       <c r="L33" s="0" t="n">
         <f aca="false">K33/$K$40</f>
         <v>0.980973492195437</v>
       </c>
+      <c r="N33" s="0" t="n">
+        <f aca="false">J33/1000</f>
+        <v>3.82356</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
@@ -1301,13 +1409,17 @@
         <v>3897.72</v>
       </c>
       <c r="K34" s="13" t="n">
-        <f aca="false">(J34*$L$5)/10^3</f>
-        <v>7.15834710743802</v>
+        <f aca="false">(J34*$L$6)/10^3</f>
+        <v>7.79544</v>
       </c>
       <c r="L34" s="0" t="n">
         <f aca="false">K34/$K$40</f>
         <v>1</v>
       </c>
+      <c r="N34" s="0" t="n">
+        <f aca="false">J34/1000</f>
+        <v>3.89772</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
@@ -1339,13 +1451,17 @@
         <v>3584.6</v>
       </c>
       <c r="K35" s="13" t="n">
-        <f aca="false">(J35*$L$5)/10^3</f>
-        <v>6.58328741965106</v>
+        <f aca="false">(J35*$L$6)/10^3</f>
+        <v>7.1692</v>
       </c>
       <c r="L35" s="0" t="n">
         <f aca="false">K35/$K$40</f>
         <v>0.919665855936291</v>
       </c>
+      <c r="N35" s="0" t="n">
+        <f aca="false">J35/1000</f>
+        <v>3.5846</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
@@ -1377,13 +1493,17 @@
         <v>3362.12</v>
       </c>
       <c r="K36" s="13" t="n">
-        <f aca="false">(J36*$L$5)/10^3</f>
-        <v>6.17469237832874</v>
+        <f aca="false">(J36*$L$6)/10^3</f>
+        <v>6.72424</v>
       </c>
       <c r="L36" s="0" t="n">
         <f aca="false">K36/$K$40</f>
         <v>0.862586332522603</v>
       </c>
+      <c r="N36" s="0" t="n">
+        <f aca="false">J36/1000</f>
+        <v>3.36212</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
@@ -1415,13 +1535,17 @@
         <v>3189.08</v>
       </c>
       <c r="K37" s="13" t="n">
-        <f aca="false">(J37*$L$5)/10^3</f>
-        <v>5.85689623507805</v>
+        <f aca="false">(J37*$L$6)/10^3</f>
+        <v>6.37816</v>
       </c>
       <c r="L37" s="0" t="n">
         <f aca="false">K37/$K$40</f>
         <v>0.81819114764529</v>
       </c>
+      <c r="N37" s="0" t="n">
+        <f aca="false">J37/1000</f>
+        <v>3.18908</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
@@ -1453,24 +1577,477 @@
         <v>3123.16</v>
       </c>
       <c r="K38" s="13" t="n">
-        <f aca="false">(J38*$L$5)/10^3</f>
-        <v>5.73583103764922</v>
+        <f aca="false">(J38*$L$6)/10^3</f>
+        <v>6.24632</v>
       </c>
       <c r="L38" s="0" t="n">
         <f aca="false">K38/$K$40</f>
         <v>0.801278696263457</v>
       </c>
+      <c r="N38" s="0" t="n">
+        <f aca="false">J38/1000</f>
+        <v>3.12316</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K40" s="0" t="n">
         <f aca="false">MAX(K15:K38)</f>
-        <v>7.15834710743802</v>
+        <v>7.79544</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>7.96</v>
+      </c>
+      <c r="D42" s="14" t="n">
+        <v>2.00972</v>
+      </c>
+      <c r="E42" s="15" t="n">
+        <v>4.01944</v>
+      </c>
+      <c r="F42" s="14" t="n">
+        <f aca="false">E42/$K$40</f>
+        <v>0.515614256539721</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="D43" s="14" t="n">
+        <v>1.94834</v>
+      </c>
+      <c r="E43" s="15" t="n">
+        <v>3.89668</v>
+      </c>
+      <c r="F43" s="14" t="n">
+        <f aca="false">E43/$K$40</f>
+        <v>0.499866588672352</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="D44" s="14" t="n">
+        <v>1.9688</v>
+      </c>
+      <c r="E44" s="15" t="n">
+        <v>3.9376</v>
+      </c>
+      <c r="F44" s="14" t="n">
+        <f aca="false">E44/$K$40</f>
+        <v>0.505115811294808</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>8.12</v>
+      </c>
+      <c r="D45" s="14" t="n">
+        <v>2.13372</v>
+      </c>
+      <c r="E45" s="15" t="n">
+        <v>4.26744</v>
+      </c>
+      <c r="F45" s="14" t="n">
+        <f aca="false">E45/$K$40</f>
+        <v>0.547427726978849</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>8.37</v>
+      </c>
+      <c r="D46" s="14" t="n">
+        <v>2.33522</v>
+      </c>
+      <c r="E46" s="15" t="n">
+        <v>4.67044</v>
+      </c>
+      <c r="F46" s="14" t="n">
+        <f aca="false">E46/$K$40</f>
+        <v>0.599124616442433</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>8.49</v>
+      </c>
+      <c r="D47" s="14" t="n">
+        <v>2.43194</v>
+      </c>
+      <c r="E47" s="15" t="n">
+        <v>4.86388</v>
+      </c>
+      <c r="F47" s="14" t="n">
+        <f aca="false">E47/$K$40</f>
+        <v>0.623939123384953</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>8.62</v>
+      </c>
+      <c r="D48" s="14" t="n">
+        <v>2.53672</v>
+      </c>
+      <c r="E48" s="15" t="n">
+        <v>5.07344</v>
+      </c>
+      <c r="F48" s="14" t="n">
+        <f aca="false">E48/$K$40</f>
+        <v>0.650821505906017</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>8.53</v>
+      </c>
+      <c r="D49" s="14" t="n">
+        <v>2.46418</v>
+      </c>
+      <c r="E49" s="15" t="n">
+        <v>4.92836</v>
+      </c>
+      <c r="F49" s="14" t="n">
+        <f aca="false">E49/$K$40</f>
+        <v>0.632210625699127</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>9.01</v>
+      </c>
+      <c r="D50" s="14" t="n">
+        <v>2.85124</v>
+      </c>
+      <c r="E50" s="15" t="n">
+        <v>5.70248</v>
+      </c>
+      <c r="F50" s="14" t="n">
+        <f aca="false">E50/$K$40</f>
+        <v>0.731514834313393</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="D51" s="14" t="n">
+        <v>3.60932</v>
+      </c>
+      <c r="E51" s="15" t="n">
+        <v>7.21864</v>
+      </c>
+      <c r="F51" s="14" t="n">
+        <f aca="false">E51/$K$40</f>
+        <v>0.926008025204479</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="D52" s="14" t="n">
+        <v>3.60932</v>
+      </c>
+      <c r="E52" s="15" t="n">
+        <v>7.21864</v>
+      </c>
+      <c r="F52" s="14" t="n">
+        <f aca="false">E52/$K$40</f>
+        <v>0.926008025204479</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>9.86</v>
+      </c>
+      <c r="D53" s="14" t="n">
+        <v>3.55164</v>
+      </c>
+      <c r="E53" s="15" t="n">
+        <v>7.10328</v>
+      </c>
+      <c r="F53" s="14" t="n">
+        <f aca="false">E53/$K$40</f>
+        <v>0.911209630245374</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D54" s="14" t="n">
+        <v>3.5846</v>
+      </c>
+      <c r="E54" s="15" t="n">
+        <v>7.1692</v>
+      </c>
+      <c r="F54" s="14" t="n">
+        <f aca="false">E54/$K$40</f>
+        <v>0.919665855936291</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>10.08</v>
+      </c>
+      <c r="D55" s="14" t="n">
+        <v>3.7206</v>
+      </c>
+      <c r="E55" s="15" t="n">
+        <v>7.4412</v>
+      </c>
+      <c r="F55" s="14" t="n">
+        <f aca="false">E55/$K$40</f>
+        <v>0.954558049321142</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="D56" s="14" t="n">
+        <v>3.7943</v>
+      </c>
+      <c r="E56" s="15" t="n">
+        <v>7.5886</v>
+      </c>
+      <c r="F56" s="14" t="n">
+        <f aca="false">E56/$K$40</f>
+        <v>0.973466539412785</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="D57" s="14" t="n">
+        <v>3.8546</v>
+      </c>
+      <c r="E57" s="15" t="n">
+        <v>7.7092</v>
+      </c>
+      <c r="F57" s="14" t="n">
+        <f aca="false">E57/$K$40</f>
+        <v>0.988937122215039</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="D58" s="14" t="n">
+        <v>3.5846</v>
+      </c>
+      <c r="E58" s="15" t="n">
+        <v>7.1692</v>
+      </c>
+      <c r="F58" s="14" t="n">
+        <f aca="false">E58/$K$40</f>
+        <v>0.919665855936291</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>9.63</v>
+      </c>
+      <c r="D59" s="14" t="n">
+        <v>3.73292</v>
+      </c>
+      <c r="E59" s="15" t="n">
+        <v>7.46584</v>
+      </c>
+      <c r="F59" s="14" t="n">
+        <f aca="false">E59/$K$40</f>
+        <v>0.957718871545416</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>9.42</v>
+      </c>
+      <c r="D60" s="14" t="n">
+        <v>3.82356</v>
+      </c>
+      <c r="E60" s="15" t="n">
+        <v>7.64712</v>
+      </c>
+      <c r="F60" s="14" t="n">
+        <f aca="false">E60/$K$40</f>
+        <v>0.980973492195437</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>9.34</v>
+      </c>
+      <c r="D61" s="14" t="n">
+        <v>3.89772</v>
+      </c>
+      <c r="E61" s="15" t="n">
+        <v>7.79544</v>
+      </c>
+      <c r="F61" s="14" t="n">
+        <f aca="false">E61/$K$40</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="D62" s="14" t="n">
+        <v>3.5846</v>
+      </c>
+      <c r="E62" s="15" t="n">
+        <v>7.1692</v>
+      </c>
+      <c r="F62" s="14" t="n">
+        <f aca="false">E62/$K$40</f>
+        <v>0.919665855936291</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="D63" s="14" t="n">
+        <v>3.36212</v>
+      </c>
+      <c r="E63" s="15" t="n">
+        <v>6.72424</v>
+      </c>
+      <c r="F63" s="14" t="n">
+        <f aca="false">E63/$K$40</f>
+        <v>0.862586332522603</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>9.2</v>
+      </c>
+      <c r="D64" s="14" t="n">
+        <v>3.18908</v>
+      </c>
+      <c r="E64" s="15" t="n">
+        <v>6.37816</v>
+      </c>
+      <c r="F64" s="14" t="n">
+        <f aca="false">E64/$K$40</f>
+        <v>0.81819114764529</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="D65" s="14" t="n">
+        <v>3.12316</v>
+      </c>
+      <c r="E65" s="15" t="n">
+        <v>6.24632</v>
+      </c>
+      <c r="F65" s="14" t="n">
+        <f aca="false">E65/$K$40</f>
+        <v>0.801278696263457</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Data/Wind_Generation.xlsx
+++ b/Data/Wind_Generation.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t xml:space="preserve">-BEGIN HEADER-</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">Normalized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">new power</t>
   </si>
 </sst>
 </file>
@@ -429,13 +432,13 @@
   </sheetPr>
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.68359375" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.67578125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="15.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="20.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.27"/>
@@ -1611,6 +1614,9 @@
       <c r="F41" s="0" t="s">
         <v>34</v>
       </c>
+      <c r="G41" s="0" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="n">
@@ -1629,6 +1635,10 @@
         <f aca="false">E42/$K$40</f>
         <v>0.515614256539721</v>
       </c>
+      <c r="G42" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C42^3/10^6</f>
+        <v>3.38200342118309</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="n">
@@ -1647,6 +1657,10 @@
         <f aca="false">E43/$K$40</f>
         <v>0.499866588672352</v>
       </c>
+      <c r="G43" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C43^3/10^6</f>
+        <v>3.26857937880722</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="n">
@@ -1665,6 +1679,10 @@
         <f aca="false">E44/$K$40</f>
         <v>0.505115811294808</v>
       </c>
+      <c r="G44" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C44^3/10^6</f>
+        <v>3.30610097178346</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="n">
@@ -1683,6 +1701,10 @@
         <f aca="false">E45/$K$40</f>
         <v>0.547427726978849</v>
       </c>
+      <c r="G45" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C45^3/10^6</f>
+        <v>3.59007008650705</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="n">
@@ -1701,6 +1723,10 @@
         <f aca="false">E46/$K$40</f>
         <v>0.599124616442433</v>
       </c>
+      <c r="G46" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C46^3/10^6</f>
+        <v>3.93197921437055</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="n">
@@ -1719,6 +1745,10 @@
         <f aca="false">E47/$K$40</f>
         <v>0.623939123384953</v>
       </c>
+      <c r="G47" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C47^3/10^6</f>
+        <v>4.10353280915212</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="n">
@@ -1737,6 +1767,10 @@
         <f aca="false">E48/$K$40</f>
         <v>0.650821505906017</v>
       </c>
+      <c r="G48" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C48^3/10^6</f>
+        <v>4.29493540833873</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="n">
@@ -1755,6 +1789,10 @@
         <f aca="false">E49/$K$40</f>
         <v>0.632210625699127</v>
       </c>
+      <c r="G49" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C49^3/10^6</f>
+        <v>4.16180696688815</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="n">
@@ -1773,6 +1811,10 @@
         <f aca="false">E50/$K$40</f>
         <v>0.731514834313393</v>
       </c>
+      <c r="G50" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C50^3/10^6</f>
+        <v>4.90466345171538</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="n">
@@ -1791,6 +1833,10 @@
         <f aca="false">E51/$K$40</f>
         <v>0.926008025204479</v>
       </c>
+      <c r="G51" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C51^3/10^6</f>
+        <v>6.56572343004554</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="n">
@@ -1809,6 +1855,10 @@
         <f aca="false">E52/$K$40</f>
         <v>0.926008025204479</v>
       </c>
+      <c r="G52" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C52^3/10^6</f>
+        <v>6.56572343004554</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="n">
@@ -1827,6 +1877,10 @@
         <f aca="false">E53/$K$40</f>
         <v>0.911209630245374</v>
       </c>
+      <c r="G53" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C53^3/10^6</f>
+        <v>6.42784778972636</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="n">
@@ -1845,6 +1899,10 @@
         <f aca="false">E54/$K$40</f>
         <v>0.919665855936291</v>
       </c>
+      <c r="G54" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C54^3/10^6</f>
+        <v>6.5063949643345</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="n">
@@ -1863,6 +1921,10 @@
         <f aca="false">E55/$K$40</f>
         <v>0.954558049321142</v>
       </c>
+      <c r="G55" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C55^3/10^6</f>
+        <v>6.8677809650282</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="n">
@@ -1881,6 +1943,10 @@
         <f aca="false">E56/$K$40</f>
         <v>0.973466539412785</v>
       </c>
+      <c r="G56" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C56^3/10^6</f>
+        <v>7.09508154745187</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="n">
@@ -1899,6 +1965,10 @@
         <f aca="false">E57/$K$40</f>
         <v>0.988937122215039</v>
       </c>
+      <c r="G57" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C57^3/10^6</f>
+        <v>7.28474213688457</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="n">
@@ -1917,6 +1987,10 @@
         <f aca="false">E58/$K$40</f>
         <v>0.919665855936291</v>
       </c>
+      <c r="G58" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C58^3/10^6</f>
+        <v>6.5063949643345</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="n">
@@ -1935,6 +2009,10 @@
         <f aca="false">E59/$K$40</f>
         <v>0.957718871545416</v>
       </c>
+      <c r="G59" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C59^3/10^6</f>
+        <v>5.9884399746756</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="n">
@@ -1953,6 +2031,10 @@
         <f aca="false">E60/$K$40</f>
         <v>0.980973492195437</v>
       </c>
+      <c r="G60" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C60^3/10^6</f>
+        <v>5.60515398118114</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="n">
@@ -1971,6 +2053,10 @@
         <f aca="false">E61/$K$40</f>
         <v>1</v>
       </c>
+      <c r="G61" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C61^3/10^6</f>
+        <v>5.4635568708857</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="n">
@@ -1989,6 +2075,10 @@
         <f aca="false">E62/$K$40</f>
         <v>0.919665855936291</v>
       </c>
+      <c r="G62" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C62^3/10^6</f>
+        <v>5.3071338082455</v>
+      </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="n">
@@ -2007,6 +2097,10 @@
         <f aca="false">E63/$K$40</f>
         <v>0.862586332522603</v>
       </c>
+      <c r="G63" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C63^3/10^6</f>
+        <v>5.13686463602836</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="n">
@@ -2025,6 +2119,10 @@
         <f aca="false">E64/$K$40</f>
         <v>0.81819114764529</v>
       </c>
+      <c r="G64" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C64^3/10^6</f>
+        <v>5.22153653872435</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="n">
@@ -2042,6 +2140,10 @@
       <c r="F65" s="14" t="n">
         <f aca="false">E65/$K$40</f>
         <v>0.801278696263457</v>
+      </c>
+      <c r="G65" s="0" t="n">
+        <f aca="false">2*1/2*1.225*3.1416*132^2/4*0.4*C65^3/10^6</f>
+        <v>5.2045282897725</v>
       </c>
     </row>
   </sheetData>
